--- a/2024-03-07-packet/Dokumentáció.xlsx
+++ b/2024-03-07-packet/Dokumentáció.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\11.o\IKTp\2024-03-07-packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E32899D-CF52-4F28-A482-848780370623}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEA96AB-DA32-4285-AD41-E1BF37B89EE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{4CEE7FD6-9B1E-48E3-94FA-FAA06D440F97}"/>
   </bookViews>
@@ -467,14 +467,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68E2297-B566-43A1-A1CF-CD62858837A6}">
-  <dimension ref="B2:Y10"/>
+  <dimension ref="B1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -697,17 +708,6 @@
       </c>
       <c r="X5">
         <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
